--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_3_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_3_sine_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.73000000000011</v>
+        <v>22.83000000000013</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>7.896359508485773e-07</v>
+        <v>3.881135413053016e-10</v>
       </c>
       <c r="H2" t="n">
-        <v>1.493445358013442e-06</v>
+        <v>1.01155817323577e-09</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>31.22746159032949</v>
+        <v>37.34033513073031</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[18.094894574820984, 44.360028605838]</t>
+          <t>[23.35692331310119, 51.32374694835943]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>6.099277795268421e-06</v>
+        <v>4.801043305135977e-07</v>
       </c>
       <c r="N2" t="n">
-        <v>6.099277795268421e-06</v>
+        <v>4.801043305135977e-07</v>
       </c>
       <c r="O2" t="n">
-        <v>1.691868716347656</v>
+        <v>1.981184556317888</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.2012896833546556, 2.182447749340657]</t>
+          <t>[1.578658170272349, 2.383710942363426]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>2.492723805147534e-10</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>2.492723805147534e-10</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>60.18750425736729</v>
+        <v>55.02280872851303</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[52.4186681229654, 67.95634039176919]</t>
+          <t>[47.68353551484772, 62.362081942178335]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.60950950950959</v>
+        <v>15.63135135135144</v>
       </c>
       <c r="X2" t="n">
-        <v>14.83479479479487</v>
+        <v>14.16876876876885</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.38422422422432</v>
+        <v>17.09393393393403</v>
       </c>
     </row>
     <row r="3">
@@ -652,39 +652,39 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.06000000000017</v>
+        <v>23.55000000000024</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>6.261036133992093e-11</v>
+        <v>1.772437752123324e-11</v>
       </c>
       <c r="H3" t="n">
-        <v>7.053967072292638e-10</v>
+        <v>2.075427131740883e-10</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>37.55257757904406</v>
+        <v>40.87373995053681</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[24.12921936362268, 50.97593579446544]</t>
+          <t>[26.320638294365047, 55.42684160670857]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.502296378408374e-07</v>
+        <v>1.356191432488885e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>3.004592756816749e-07</v>
+        <v>2.712382864977769e-07</v>
       </c>
       <c r="O3" t="n">
-        <v>2.018921405009657</v>
+        <v>2.345974093671657</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.6289739685280402, 2.408868841491273]</t>
+          <t>[1.9937635058818093, 2.698184681461504]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>54.90733882404214</v>
+        <v>54.43193627748487</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[47.76390000504168, 62.05077764304261]</t>
+          <t>[46.97189737415021, 61.89197518081952]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.65033033033044</v>
+        <v>14.75705705705721</v>
       </c>
       <c r="X3" t="n">
-        <v>14.21917917917928</v>
+        <v>13.43693693693707</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.08148148148161</v>
+        <v>16.07717717717735</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_3_sine_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sine_0.5/cosinor_3_sine_0.5_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>22.83000000000013</v>
+        <v>22.28000000000004</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>3.881135413053016e-10</v>
+        <v>1.70908698304828e-07</v>
       </c>
       <c r="H2" t="n">
-        <v>1.01155817323577e-09</v>
+        <v>5.18811928874888e-07</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>37.34033513073031</v>
+        <v>32.98214592913729</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[23.35692331310119, 51.32374694835943]</t>
+          <t>[19.796704948594808, 46.16758690967977]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.801043305135977e-07</v>
+        <v>2.132373553509481e-06</v>
       </c>
       <c r="N2" t="n">
-        <v>4.801043305135977e-07</v>
+        <v>2.132373553509481e-06</v>
       </c>
       <c r="O2" t="n">
-        <v>1.981184556317888</v>
+        <v>1.352237078121733</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.578658170272349, 2.383710942363426]</t>
+          <t>[0.8868159442565782, 1.8176582119868874]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>5.473663078348068e-08</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>7.292237591549622e-08</v>
       </c>
       <c r="S2" t="n">
-        <v>55.02280872851303</v>
+        <v>54.25617733477725</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[47.68353551484772, 62.362081942178335]</t>
+          <t>[46.55879649129432, 61.953558178260174]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>15.63135135135144</v>
+        <v>17.48500500500504</v>
       </c>
       <c r="X2" t="n">
-        <v>14.16876876876885</v>
+        <v>15.83463463463467</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.09393393393403</v>
+        <v>19.13537537537541</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>23.55000000000024</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.772437752123324e-11</v>
+        <v>1.107707658931645e-08</v>
       </c>
       <c r="H3" t="n">
-        <v>2.075427131740883e-10</v>
+        <v>1.068378628503805e-07</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>40.87373995053681</v>
+        <v>35.28447776554388</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[26.320638294365047, 55.42684160670857]</t>
+          <t>[21.921587075150455, 48.64736845593731]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1.356191432488885e-07</v>
+        <v>6.27558780719184e-07</v>
       </c>
       <c r="N3" t="n">
-        <v>2.712382864977769e-07</v>
+        <v>1.255117561438368e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>2.345974093671657</v>
+        <v>1.301921279866041</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.9937635058818093, 2.698184681461504]</t>
+          <t>[0.8490790955648082, 1.7547634641672731]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>7.292237591549622e-08</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>7.292237591549622e-08</v>
       </c>
       <c r="S3" t="n">
-        <v>54.43193627748487</v>
+        <v>64.77265748630344</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[46.97189737415021, 61.89197518081952]</t>
+          <t>[56.979335013104155, 72.56597995950273]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>14.75705705705721</v>
+        <v>17.8933333333334</v>
       </c>
       <c r="X3" t="n">
-        <v>13.43693693693707</v>
+        <v>16.26666666666673</v>
       </c>
       <c r="Y3" t="n">
-        <v>16.07717717717735</v>
+        <v>19.52000000000008</v>
       </c>
     </row>
   </sheetData>
